--- a/Tarot_cards.xlsx
+++ b/Tarot_cards.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vifep\Desktop\Fallen\Relics of the Forgotten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vifep\Desktop\Fallen\Forbidden Weaponry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D803C-0105-4081-AA90-F808552C254A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8405ADB-7B77-4061-88EB-034EEE03C29B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal effects" sheetId="1" r:id="rId1"/>
-    <sheet name="Combination effects" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Inflicts glowing effect for 10 seconds</t>
   </si>
@@ -46,9 +45,6 @@
     <t>Teleports the target 3 blocks backwards</t>
   </si>
   <si>
-    <t>Drowned</t>
-  </si>
-  <si>
     <t>Goat</t>
   </si>
   <si>
@@ -58,9 +54,6 @@
     <t>Spider</t>
   </si>
   <si>
-    <t>Inflicts drowning for 5 seconds</t>
-  </si>
-  <si>
     <t>Inflicts slowness for 10 seconds</t>
   </si>
   <si>
@@ -100,9 +93,6 @@
     <t>Inflicts hunger for 10 seconds</t>
   </si>
   <si>
-    <t>Magma cube</t>
-  </si>
-  <si>
     <t>Shulker</t>
   </si>
   <si>
@@ -118,9 +108,6 @@
     <t>Slime</t>
   </si>
   <si>
-    <t>Spawns a medium size magma cube to target the target</t>
-  </si>
-  <si>
     <t>Spawns a medium size slime to target the target</t>
   </si>
   <si>
@@ -148,112 +135,160 @@
     <t>Zombie</t>
   </si>
   <si>
-    <t>Normal attack, can zombify villagers, piglins or hoglins</t>
-  </si>
-  <si>
     <t>Phantom</t>
   </si>
   <si>
     <t>Pierces up to 3 targets</t>
   </si>
   <si>
-    <t>Glowing squid + phantom</t>
-  </si>
-  <si>
-    <t>The next attack will phase through blocks and autoaim to the glowing target, dealing x2 damage</t>
-  </si>
-  <si>
     <t>Spawns a cobweb at targets position</t>
   </si>
   <si>
-    <t>Pufferfish + spider</t>
-  </si>
-  <si>
-    <t>Pufferfish + wither</t>
-  </si>
-  <si>
-    <t>The next attack will spawn 2 venomous spiders that attack the taget and set a cobweb</t>
-  </si>
-  <si>
-    <t>The next attack will inflict Disease effect for 10 seconds, inflicting damage per second,preventing healing and reducing defense 15%</t>
-  </si>
-  <si>
-    <t>The next attack will trap the target into a dragon breath zone for 10 seconds</t>
-  </si>
-  <si>
-    <t>The next attack will summon 2 ender vexes, which are vexes that can teleport</t>
-  </si>
-  <si>
-    <t>Enderman + evoker</t>
-  </si>
-  <si>
-    <t>Pufferfish + pufferfish</t>
-  </si>
-  <si>
-    <t>The next attack will do x1.5 damage and inflict stronger poison</t>
-  </si>
-  <si>
-    <t>Enderman + ender dragon</t>
-  </si>
-  <si>
-    <t>Blaze + creeper</t>
-  </si>
-  <si>
-    <t>The next attack will spawn a hughe explosion and will deal x3 damage</t>
-  </si>
-  <si>
-    <t>Blaze + evoker</t>
-  </si>
-  <si>
-    <t>The next attack will summon 2 infernal vexes, which throw fireballs at the target</t>
-  </si>
-  <si>
-    <t>Creeper + phantom</t>
-  </si>
-  <si>
-    <t>The next attack will pierce infinitely and explode all the targets hit, and the damage of the explosions will be higher each time</t>
-  </si>
-  <si>
-    <t>Elder guardian + warden</t>
-  </si>
-  <si>
-    <t>The next attack will chain the target's soul, immovilizing him, draining health over time, inflicting severe weakness and 10% defense reduction for 10 seconds</t>
-  </si>
-  <si>
-    <t>Ender dragon + wither</t>
-  </si>
-  <si>
-    <t>The next attack will inflict Ender sickness for 10 seconds, dealing high damage over time and teleporting the target randomly</t>
-  </si>
-  <si>
-    <t>Magma cube + slime</t>
-  </si>
-  <si>
-    <t>The next attack will summon the king slime</t>
-  </si>
-  <si>
-    <t>Shulker + evoker</t>
-  </si>
-  <si>
-    <t>The next attack will summon 3 living shulker bullets, which will inflict levitation on hit</t>
-  </si>
-  <si>
-    <t>Skeleton + wither</t>
-  </si>
-  <si>
-    <t>The next attack will spawn 2 wither skeletons to attack the target</t>
-  </si>
-  <si>
-    <t>Stray + phantom</t>
-  </si>
-  <si>
-    <t>The next attack will pierce infinitely and freeze the targets souls, freezing them for 5 seconds</t>
-  </si>
-  <si>
-    <t>Witch + witch</t>
-  </si>
-  <si>
-    <t>The next attack will inflict all the harmful debuffs at the same time for 10 seconds</t>
+    <t>The Fool (up)</t>
+  </si>
+  <si>
+    <t>The Fool (down)</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Combination with The Fool (Up)</t>
+  </si>
+  <si>
+    <t>Combination with The Fool (Down)</t>
+  </si>
+  <si>
+    <t>Allows beneficial combinations, x1.5 damage</t>
+  </si>
+  <si>
+    <t>Makes harmful combinations, x0.5 damage</t>
+  </si>
+  <si>
+    <t>Card will inflict attracting glow for 10 seconds instead, making cards autoaim to the target</t>
+  </si>
+  <si>
+    <t>Card will spawn a big venom zone for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict the ender anchor effect for 10 seconds, making the target teleport back to the hit point every second</t>
+  </si>
+  <si>
+    <t>Card will inflict the drowning effect for 10 seconds, making target take drowning damage and act as if he was underwater</t>
+  </si>
+  <si>
+    <t>Card will inflict the deja vu effect for 10 seconds, making every hit he takes knockback him 3 blocks</t>
+  </si>
+  <si>
+    <t>Card will inflict the inferno effect for 15 seconds, spawning a burning geyser at target's position every 3 seconds</t>
+  </si>
+  <si>
+    <t>Card will surround the target with explosive mini creepers, exploding when the target gets near</t>
+  </si>
+  <si>
+    <t>Card will spawn a mini ender dragon to attack the target with dragon breath for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn 2 vexes and there will be fangs firing from random positions at the target for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict the desert curse for 10 seconds, giving mining fatigue, slowness, nausea, hunger and weakness</t>
+  </si>
+  <si>
+    <t>Card will spawn 2 living shulker bullets for 15 seconds, that will attack the target, inflicting levitation on hit</t>
+  </si>
+  <si>
+    <t>Card will shoot arrows from random positions at the target for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn the king slime</t>
+  </si>
+  <si>
+    <t>Card will spawn a big freezing zone for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn wardens for 15 seconds, that will attack the target once and inflict darkness</t>
+  </si>
+  <si>
+    <t>Card will inflict 3 random harmful effects at the target and 3 random beneficial effects to the caster</t>
+  </si>
+  <si>
+    <t>Card will shoot wither skulls at the target from random positions for 15 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn 2 zombie jockeys to attack the target</t>
+  </si>
+  <si>
+    <t>Card will pierce infinitely and deal extra damage each pierce</t>
+  </si>
+  <si>
+    <t>Card will spawn 2 venomous spiders to attack the target</t>
+  </si>
+  <si>
+    <t>Card will inflict glowing to the caster for 10 seconds and darkness for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict venom to the caster for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will teleport the caster to a random position</t>
+  </si>
+  <si>
+    <t>Card will knockback the caster</t>
+  </si>
+  <si>
+    <t>Card will set the caster on fire for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will explode at the caster's face upon shooting it</t>
+  </si>
+  <si>
+    <t>Card will drown the caster for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn a dragon breath zone at the caster</t>
+  </si>
+  <si>
+    <t>Card will spawn a vex to attack the caster</t>
+  </si>
+  <si>
+    <t>Card will inflict hunger at the target for 10 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict levitation at the caster for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will shoot an arrow from the back of the caster</t>
+  </si>
+  <si>
+    <t>Card will spawn a medium slime at the caster</t>
+  </si>
+  <si>
+    <t>Card will inflict slowness to the caster for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict darkness to the target for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will inflict a random harmful effect at the caster</t>
+  </si>
+  <si>
+    <t>Card will inflict wither at the caster for 5 seconds</t>
+  </si>
+  <si>
+    <t>Card will spawn a baby zombie to attack the caster</t>
+  </si>
+  <si>
+    <t>Spawns a baby zombie to attack the target</t>
+  </si>
+  <si>
+    <t>Card will phase through the target making no damage</t>
+  </si>
+  <si>
+    <t>Card spawns a cobweb at the caster</t>
   </si>
 </sst>
 </file>
@@ -269,12 +304,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,8 +336,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,343 +620,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="108.85546875" customWidth="1"/>
+    <col min="4" max="4" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="B25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87726E3-4156-4B45-8FE7-F5FC91FB2511}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="141.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>